--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920CC39E-ED29-4D31-A9C1-62FFDEDD43D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0903041-DEAA-478E-9849-4A9F76C52F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>BAIRRO</t>
   </si>
@@ -116,6 +116,69 @@
   </si>
   <si>
     <t>ROGERIO FIGUEREDO SOUZA</t>
+  </si>
+  <si>
+    <t>MONTE CASTELO</t>
+  </si>
+  <si>
+    <t>58101-052</t>
+  </si>
+  <si>
+    <t>CABEDELO</t>
+  </si>
+  <si>
+    <t>53.504.654/0001-19</t>
+  </si>
+  <si>
+    <t>044.905.827-14</t>
+  </si>
+  <si>
+    <t>2025-03-24 22:21:44</t>
+  </si>
+  <si>
+    <t>Robson88523813@gmail.com</t>
+  </si>
+  <si>
+    <t>R CASSIANO DA CUNHA NOBREGA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>53.504.654 ROBSON RODRIGUES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>SAO CAETANO</t>
+  </si>
+  <si>
+    <t>45607-090</t>
+  </si>
+  <si>
+    <t>56.868.552/0001-70</t>
+  </si>
+  <si>
+    <t>203)</t>
+  </si>
+  <si>
+    <t>553.130.865-53</t>
+  </si>
+  <si>
+    <t>2025-03-24 22:22:12</t>
+  </si>
+  <si>
+    <t>EDUARDOJSB10@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>RUA: FLORESTA</t>
+  </si>
+  <si>
+    <t>(73) 98824-8659</t>
+  </si>
+  <si>
+    <t>J S B COMERCIO E REPRESENTACAO COMERCIAL LTDA</t>
   </si>
 </sst>
 </file>
@@ -478,26 +541,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,6 +769,100 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -1,40 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB786C9-9877-4F3C-83F2-E97401B60AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+  <si>
+    <t>Quantos cartão</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Nome Social</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>NÃO INFORMADO</t>
+  </si>
+  <si>
+    <t>53.554.993/0001-00</t>
+  </si>
+  <si>
+    <t>MASTER: ROGERIO FIGUEREDO SOUZA</t>
+  </si>
+  <si>
+    <t>DIFERENTE DA RECEITA</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>(75) 99177-9847</t>
+  </si>
+  <si>
+    <t>figueredorogerio300@gmail.com</t>
+  </si>
+  <si>
+    <t>52.391.434/0001-63</t>
+  </si>
+  <si>
+    <t>52.391.434 ERBESON COSTA CORREIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>Daviluizcosta7412@gmail.com</t>
+  </si>
+  <si>
+    <t>49.605.811/0001-05</t>
+  </si>
+  <si>
+    <t>49.605.811 FABIO HENRIQUE PIMENTEL CESAR</t>
+  </si>
+  <si>
+    <t>Rua: CAM CINCO (URBIS II) NUMERO</t>
+  </si>
+  <si>
+    <t>DO ENDEREÇO</t>
+  </si>
+  <si>
+    <t>(77) 99191-4170</t>
+  </si>
+  <si>
+    <t>fabus.caezar@gmail.com</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>R DA MATA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,159 +475,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Quantos cartão</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CNPJ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nome Social</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Endereço</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Numero</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Complemento</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
-        </is>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>53.554.993/0001-00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MASTER: ROGERIO FIGUEREDO SOUZA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DIFERENTE DA RECEITA</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CASA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(75) 99177-9847</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>figueredorogerio300@gmail.com</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>53.554.993/0001-00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MASTER: ROGERIO FIGUEREDO SOUZA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DIFERENTE DA RECEITA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CASA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(75) 99177-9847</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>figueredorogerio300@gmail.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB786C9-9877-4F3C-83F2-E97401B60AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C1F04-3C93-4D81-B918-E8B7B23333E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Complemento</t>
   </si>
   <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
     <t>Telefone</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>52.391.434 ERBESON COSTA CORREIA</t>
   </si>
   <si>
+    <t>R DA MATA</t>
+  </si>
+  <si>
     <t xml:space="preserve">, </t>
   </si>
   <si>
@@ -100,13 +109,46 @@
     <t>fabus.caezar@gmail.com</t>
   </si>
   <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>R DA MATA</t>
+    <t>53.504.654/0001-19</t>
+  </si>
+  <si>
+    <t>53.504.654 ROBSON RODRIGUES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>R CASSIANO DA CUNHA NOBREGA</t>
+  </si>
+  <si>
+    <t>Em frente a praia</t>
+  </si>
+  <si>
+    <t>CABEDELO</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>(83) 98784-0908</t>
+  </si>
+  <si>
+    <t>Robson88523813@gmail.com</t>
+  </si>
+  <si>
+    <t>56.868.552/0001-70</t>
+  </si>
+  <si>
+    <t>J S B COMERCIO E REPRESENTACAO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>RUA: FLORESTA</t>
+  </si>
+  <si>
+    <t>203)</t>
+  </si>
+  <si>
+    <t>(73) 98824-8659</t>
+  </si>
+  <si>
+    <t>EDUARDOJSB10@HOTMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -123,23 +165,16 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -171,7 +206,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,28 +511,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,139 +548,208 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C1F04-3C93-4D81-B918-E8B7B23333E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB3C2E7-C6B9-42E0-AC2C-BE197A1F59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>EDUARDOJSB10@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FLORESTA</t>
+  </si>
+  <si>
+    <t>331 (EDIF CRISTAL APT 203)</t>
+  </si>
+  <si>
+    <t>SEM PONTO</t>
+  </si>
+  <si>
+    <t>ITABUNA</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>(73) 9 8824-8659, (73) 9 81584374 (1, (73) 9 88248659 (100</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE SOARES BRANDAO</t>
   </si>
 </sst>
 </file>
@@ -511,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,8 +547,9 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,6 +774,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB3C2E7-C6B9-42E0-AC2C-BE197A1F59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFBFF40-5859-4612-B2BB-8F913F18AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>EDUARDO JOSE SOARES BRANDAO</t>
+  </si>
+  <si>
+    <t>(73) 9 8824-8659</t>
   </si>
 </sst>
 </file>
@@ -193,12 +196,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,7 +239,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -535,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +560,7 @@
     <col min="6" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -809,6 +819,41 @@
         <v>50</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFBFF40-5859-4612-B2BB-8F913F18AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E05494-9944-44C1-84B2-4140622D824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Vendedor</t>
   </si>
   <si>
+    <t>Data Extração</t>
+  </si>
+  <si>
     <t>NÃO INFORMADO</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
   </si>
   <si>
     <t>(73) 9 8824-8659</t>
+  </si>
+  <si>
+    <t>24/03/2025 23:11</t>
   </si>
 </sst>
 </file>
@@ -196,18 +202,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,7 +239,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -544,11 +544,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,9 +559,10 @@
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,261 +596,326 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
+      <c r="L10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E05494-9944-44C1-84B2-4140622D824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216028CE-9532-44D2-B746-26B9D831329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -182,6 +182,45 @@
   </si>
   <si>
     <t>24/03/2025 23:11</t>
+  </si>
+  <si>
+    <t>24.626.300/0001-49</t>
+  </si>
+  <si>
+    <t>JOSUE DOS SANTOS JUNIOR 10016994400</t>
+  </si>
+  <si>
+    <t>GENUINO SILVA N46</t>
+  </si>
+  <si>
+    <t>ERÊNCIA: BECO DO MARACUJA</t>
+  </si>
+  <si>
+    <t>PAUDALHO</t>
+  </si>
+  <si>
+    <t>(81) 9 9663-3380</t>
+  </si>
+  <si>
+    <t>josuefotosevideos2012@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSUE DOS SANTOS JUNIOR</t>
+  </si>
+  <si>
+    <t>24/03/2025 23:14</t>
+  </si>
+  <si>
+    <t>ERÊNCIA: Próximo à escola municipalizada Maria Rogaciana</t>
+  </si>
+  <si>
+    <t>VITORIA DA CONQUISTA</t>
+  </si>
+  <si>
+    <t>(77) 9 9191-4170</t>
+  </si>
+  <si>
+    <t>FABIO HENRIQUE PIMENTEL CESAR</t>
   </si>
 </sst>
 </file>
@@ -544,22 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -918,6 +958,82 @@
         <v>53</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216028CE-9532-44D2-B746-26B9D831329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D51EC-503D-4D64-A97D-C6EE55D085AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>FABIO HENRIQUE PIMENTEL CESAR</t>
+  </si>
+  <si>
+    <t>24/03/2025 23:35</t>
   </si>
 </sst>
 </file>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +603,7 @@
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,6 +1038,44 @@
         <v>62</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D51EC-503D-4D64-A97D-C6EE55D085AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74DC0F-37CE-4D70-8032-F38BCC5B90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>24/03/2025 23:35</t>
+  </si>
+  <si>
+    <t>24/03/2025 23:38</t>
+  </si>
+  <si>
+    <t>25/03/2025 00:04</t>
   </si>
 </sst>
 </file>
@@ -586,22 +592,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1076,6 +1083,82 @@
         <v>67</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\automacaoPythonAvanttiChips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74DC0F-37CE-4D70-8032-F38BCC5B90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F8A4F-D848-4AF9-B91C-C380024D8DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>Quantos cartão</t>
   </si>
@@ -230,6 +230,33 @@
   </si>
   <si>
     <t>25/03/2025 00:04</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ROGERIO FIGUEREDO SOUZA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HA DDD</t>
+  </si>
+  <si>
+    <t>ERENCIA : REFERENCIA : SUPERMECADO DO DENGO</t>
+  </si>
+  <si>
+    <t>ITABERABA</t>
+  </si>
+  <si>
+    <t>(75) 9 9177-9847</t>
+  </si>
+  <si>
+    <t>25/03/2025 00:16</t>
+  </si>
+  <si>
+    <t>25/03/2025 00:27</t>
   </si>
 </sst>
 </file>
@@ -592,15 +619,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
@@ -609,6 +635,7 @@
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1159,6 +1186,82 @@
         <v>69</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\automacaoPythonAvanttiChips\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187E0D1-B232-4BF5-ABFA-E6ADCFCDC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Quantos cartão</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Nome Social</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Complemento</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Data Extração</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,64 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Quantos cartão</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nome Social</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Numero</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Complemento</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cidade</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data Extração</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>31.855.008/0001-63</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RODRIGO JOSE MAIORANO DE LIMA BRITO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(98) 0 0146-9887</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>r_brito9@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>25/03/2025 10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31.855.008/0001-63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RODRIGO JOSE MAIORANO DE LIMA BRITO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(98) 0 0146-9887</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>r_brito9@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>25/03/2025 10:46</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,64 +556,124 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31.855.008/0001-63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RODRIGO JOSE MAIORANO DE LIMA BRITO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(98) 0 0146-9887</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>r_brito9@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>25/03/2025 10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>31.855.008/0001-63</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RODRIGO JOSE MAIORANO DE LIMA BRITO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(98) 0 0146-9887</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>r_brito9@hotmail.com</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NÃO INFORMADO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25/03/2025 10:46</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>28/03/2025 10:12</t>
         </is>
       </c>
     </row>
